--- a/Contenu_Dossier_159_160/ig/StructureDefinition-esms-consent.xlsx
+++ b/Contenu_Dossier_159_160/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:55:45+00:00</t>
+    <t>2024-10-17T16:33:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Contenu_Dossier_159_160/ig/StructureDefinition-esms-consent.xlsx
+++ b/Contenu_Dossier_159_160/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T16:33:53+00:00</t>
+    <t>2024-10-21T11:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Contenu_Dossier_159_160/ig/StructureDefinition-esms-consent.xlsx
+++ b/Contenu_Dossier_159_160/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T11:18:50+00:00</t>
+    <t>2024-10-21T13:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
